--- a/2019/北京蓝色港湾店/99 项目管理/WBS_Levi‘s CMS System SI_(CHN-BJ)_20191106.xlsx
+++ b/2019/北京蓝色港湾店/99 项目管理/WBS_Levi‘s CMS System SI_(CHN-BJ)_20191106.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="972" yWindow="-108" windowWidth="22176" windowHeight="13176" tabRatio="625"/>
   </bookViews>
   <sheets>
-    <sheet name="WBS for Sibuya" sheetId="41" r:id="rId1"/>
+    <sheet name="WBS" sheetId="41" r:id="rId1"/>
     <sheet name="個人 (2)" sheetId="36" state="hidden" r:id="rId2"/>
     <sheet name="holiday" sheetId="40" r:id="rId3"/>
   </sheets>
@@ -15,7 +15,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WBS for Sibuya'!$A$4:$P$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">WBS!$A$4:$P$117</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'個人 (2)'!$L$1:$L$118</definedName>
     <definedName name="_Regression_X" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" hidden="1">#REF!</definedName>
@@ -3748,6 +3748,48 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="12" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="35" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="35" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3915,48 +3957,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="12" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="35" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="35" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="35" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -4521,7 +4521,7 @@
         <xdr:cNvPr id="19457" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000014C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000014C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4639,7 +4639,7 @@
         <xdr:cNvPr id="1869066" name="Line 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A851C00}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A851C00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4693,7 +4693,7 @@
         <xdr:cNvPr id="19459" name="Text Box 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000034C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000034C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4811,7 +4811,7 @@
         <xdr:cNvPr id="1869068" name="Line 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C851C00}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C851C00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4865,7 +4865,7 @@
         <xdr:cNvPr id="1869069" name="Line 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D851C00}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D851C00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4919,7 +4919,7 @@
         <xdr:cNvPr id="1869070" name="Line 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E851C00}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E851C00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4973,7 +4973,7 @@
         <xdr:cNvPr id="1869071" name="Line 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F851C00}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F851C00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5027,7 +5027,7 @@
         <xdr:cNvPr id="1869072" name="Line 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010851C00}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010851C00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5081,7 +5081,7 @@
         <xdr:cNvPr id="1869073" name="Line 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011851C00}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011851C00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5135,7 +5135,7 @@
         <xdr:cNvPr id="1869074" name="Line 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012851C00}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012851C00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5189,7 +5189,7 @@
         <xdr:cNvPr id="1869075" name="Line 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000013851C00}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013851C00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5243,7 +5243,7 @@
         <xdr:cNvPr id="1869076" name="Line 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014851C00}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014851C00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5297,7 +5297,7 @@
         <xdr:cNvPr id="1869077" name="Line 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015851C00}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015851C00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5687,7 +5687,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="I114" sqref="I114:J116"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -5707,32 +5707,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="19.5" customHeight="1" thickTop="1">
-      <c r="A1" s="279" t="s">
+      <c r="A1" s="293" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
+      <c r="B1" s="294"/>
+      <c r="C1" s="294"/>
+      <c r="D1" s="294"/>
+      <c r="E1" s="294"/>
+      <c r="F1" s="294"/>
+      <c r="G1" s="294"/>
+      <c r="H1" s="294"/>
       <c r="I1" s="118" t="s">
         <v>179</v>
       </c>
-      <c r="J1" s="304" t="s">
+      <c r="J1" s="318" t="s">
         <v>183</v>
       </c>
-      <c r="K1" s="305"/>
+      <c r="K1" s="319"/>
       <c r="L1" s="118" t="s">
         <v>180</v>
       </c>
-      <c r="M1" s="304" t="s">
+      <c r="M1" s="318" t="s">
         <v>184</v>
       </c>
-      <c r="N1" s="306"/>
-      <c r="O1" s="300"/>
-      <c r="P1" s="301"/>
+      <c r="N1" s="320"/>
+      <c r="O1" s="314"/>
+      <c r="P1" s="315"/>
       <c r="Q1" s="119"/>
       <c r="R1" s="119"/>
       <c r="S1" s="119"/>
@@ -5742,30 +5742,30 @@
       <c r="W1" s="119"/>
     </row>
     <row r="2" spans="1:59" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A2" s="281"/>
-      <c r="B2" s="282"/>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
-      <c r="G2" s="282"/>
-      <c r="H2" s="282"/>
+      <c r="A2" s="295"/>
+      <c r="B2" s="296"/>
+      <c r="C2" s="296"/>
+      <c r="D2" s="296"/>
+      <c r="E2" s="296"/>
+      <c r="F2" s="296"/>
+      <c r="G2" s="296"/>
+      <c r="H2" s="296"/>
       <c r="I2" s="120" t="s">
         <v>244</v>
       </c>
-      <c r="J2" s="307">
+      <c r="J2" s="321">
         <v>43775</v>
       </c>
-      <c r="K2" s="308"/>
+      <c r="K2" s="322"/>
       <c r="L2" s="121" t="s">
         <v>213</v>
       </c>
-      <c r="M2" s="307">
+      <c r="M2" s="321">
         <v>43775</v>
       </c>
-      <c r="N2" s="309"/>
-      <c r="O2" s="302"/>
-      <c r="P2" s="303"/>
+      <c r="N2" s="323"/>
+      <c r="O2" s="316"/>
+      <c r="P2" s="317"/>
       <c r="Q2" s="119"/>
       <c r="R2" s="119"/>
       <c r="S2" s="119"/>
@@ -5800,36 +5800,36 @@
       <c r="W3" s="122"/>
     </row>
     <row r="4" spans="1:59" ht="23.25" customHeight="1">
-      <c r="A4" s="287" t="s">
+      <c r="A4" s="301" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="288"/>
-      <c r="C4" s="288"/>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="292" t="s">
+      <c r="B4" s="302"/>
+      <c r="C4" s="302"/>
+      <c r="D4" s="303"/>
+      <c r="E4" s="303"/>
+      <c r="F4" s="306" t="s">
         <v>182</v>
       </c>
-      <c r="G4" s="294" t="s">
+      <c r="G4" s="308" t="s">
         <v>194</v>
       </c>
-      <c r="H4" s="296" t="s">
+      <c r="H4" s="310" t="s">
         <v>174</v>
       </c>
-      <c r="I4" s="297" t="s">
+      <c r="I4" s="311" t="s">
         <v>175</v>
       </c>
-      <c r="J4" s="298"/>
-      <c r="K4" s="299"/>
-      <c r="L4" s="297" t="s">
+      <c r="J4" s="312"/>
+      <c r="K4" s="313"/>
+      <c r="L4" s="311" t="s">
         <v>176</v>
       </c>
-      <c r="M4" s="298"/>
-      <c r="N4" s="299"/>
-      <c r="O4" s="283" t="s">
+      <c r="M4" s="312"/>
+      <c r="N4" s="313"/>
+      <c r="O4" s="297" t="s">
         <v>185</v>
       </c>
-      <c r="P4" s="285" t="s">
+      <c r="P4" s="299" t="s">
         <v>178</v>
       </c>
       <c r="Q4" s="122"/>
@@ -5980,14 +5980,14 @@
       </c>
     </row>
     <row r="5" spans="1:59" ht="40.200000000000003" thickBot="1">
-      <c r="A5" s="290"/>
-      <c r="B5" s="291"/>
-      <c r="C5" s="291"/>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="295"/>
-      <c r="H5" s="295"/>
+      <c r="A5" s="304"/>
+      <c r="B5" s="305"/>
+      <c r="C5" s="305"/>
+      <c r="D5" s="305"/>
+      <c r="E5" s="305"/>
+      <c r="F5" s="307"/>
+      <c r="G5" s="309"/>
+      <c r="H5" s="309"/>
       <c r="I5" s="155" t="s">
         <v>187</v>
       </c>
@@ -6006,8 +6006,8 @@
       <c r="N5" s="128" t="s">
         <v>177</v>
       </c>
-      <c r="O5" s="284"/>
-      <c r="P5" s="286"/>
+      <c r="O5" s="298"/>
+      <c r="P5" s="300"/>
       <c r="Q5" s="122"/>
       <c r="R5" s="129" t="s">
         <v>168</v>
@@ -6144,7 +6144,7 @@
         <v>43780</v>
       </c>
       <c r="J6" s="159">
-        <v>43807</v>
+        <v>43802</v>
       </c>
       <c r="K6" s="160"/>
       <c r="L6" s="161"/>
@@ -6722,7 +6722,7 @@
         <v>43780</v>
       </c>
       <c r="J9" s="169">
-        <v>43807</v>
+        <v>43802</v>
       </c>
       <c r="K9" s="170">
         <v>8</v>
@@ -9312,18 +9312,18 @@
       </c>
     </row>
     <row r="23" spans="1:59" ht="16.8" outlineLevel="1">
-      <c r="A23" s="335">
+      <c r="A23" s="279">
         <v>1</v>
       </c>
-      <c r="B23" s="336">
+      <c r="B23" s="280">
         <v>2</v>
       </c>
-      <c r="C23" s="336">
+      <c r="C23" s="280">
         <v>1</v>
       </c>
-      <c r="D23" s="336"/>
-      <c r="E23" s="337"/>
-      <c r="F23" s="338" t="s">
+      <c r="D23" s="280"/>
+      <c r="E23" s="281"/>
+      <c r="F23" s="282" t="s">
         <v>255</v>
       </c>
       <c r="G23" s="233" t="s">
@@ -9341,11 +9341,11 @@
       <c r="K23" s="170">
         <v>0</v>
       </c>
-      <c r="L23" s="341"/>
-      <c r="M23" s="341"/>
-      <c r="N23" s="343"/>
-      <c r="O23" s="344"/>
-      <c r="P23" s="345"/>
+      <c r="L23" s="285"/>
+      <c r="M23" s="285"/>
+      <c r="N23" s="287"/>
+      <c r="O23" s="288"/>
+      <c r="P23" s="289"/>
       <c r="Q23" s="133"/>
       <c r="R23" s="134">
         <f>IF($J23="","",IF($J23&lt;=$L$2,$K23,IF($I23&lt;=$L$2,NETWORKDAYS($I23,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I23,$J23,holiday!$C$3:$C$10)*$K23,0)))</f>
@@ -9504,18 +9504,18 @@
       </c>
     </row>
     <row r="24" spans="1:59" ht="16.8" outlineLevel="1">
-      <c r="A24" s="335">
+      <c r="A24" s="279">
         <v>1</v>
       </c>
-      <c r="B24" s="336">
+      <c r="B24" s="280">
         <v>2</v>
       </c>
-      <c r="C24" s="336">
+      <c r="C24" s="280">
         <v>2</v>
       </c>
-      <c r="D24" s="336"/>
-      <c r="E24" s="337"/>
-      <c r="F24" s="338" t="s">
+      <c r="D24" s="280"/>
+      <c r="E24" s="281"/>
+      <c r="F24" s="282" t="s">
         <v>256</v>
       </c>
       <c r="G24" s="233" t="s">
@@ -9533,11 +9533,11 @@
       <c r="K24" s="170">
         <v>0</v>
       </c>
-      <c r="L24" s="341"/>
-      <c r="M24" s="341"/>
-      <c r="N24" s="343"/>
-      <c r="O24" s="344"/>
-      <c r="P24" s="345"/>
+      <c r="L24" s="285"/>
+      <c r="M24" s="285"/>
+      <c r="N24" s="287"/>
+      <c r="O24" s="288"/>
+      <c r="P24" s="289"/>
       <c r="Q24" s="133"/>
       <c r="R24" s="134">
         <f>IF($J24="","",IF($J24&lt;=$L$2,$K24,IF($I24&lt;=$L$2,NETWORKDAYS($I24,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I24,$J24,holiday!$C$3:$C$10)*$K24,0)))</f>
@@ -9696,18 +9696,18 @@
       </c>
     </row>
     <row r="25" spans="1:59" ht="16.8" outlineLevel="1">
-      <c r="A25" s="335">
+      <c r="A25" s="279">
         <v>1</v>
       </c>
-      <c r="B25" s="336">
+      <c r="B25" s="280">
         <v>2</v>
       </c>
-      <c r="C25" s="336">
+      <c r="C25" s="280">
         <v>3</v>
       </c>
-      <c r="D25" s="336"/>
-      <c r="E25" s="337"/>
-      <c r="F25" s="338" t="s">
+      <c r="D25" s="280"/>
+      <c r="E25" s="281"/>
+      <c r="F25" s="282" t="s">
         <v>257</v>
       </c>
       <c r="G25" s="233" t="s">
@@ -9725,11 +9725,11 @@
       <c r="K25" s="170">
         <v>0</v>
       </c>
-      <c r="L25" s="341"/>
-      <c r="M25" s="341"/>
-      <c r="N25" s="343"/>
-      <c r="O25" s="344"/>
-      <c r="P25" s="345"/>
+      <c r="L25" s="285"/>
+      <c r="M25" s="285"/>
+      <c r="N25" s="287"/>
+      <c r="O25" s="288"/>
+      <c r="P25" s="289"/>
       <c r="Q25" s="133"/>
       <c r="R25" s="134">
         <f>IF($J25="","",IF($J25&lt;=$L$2,$K25,IF($I25&lt;=$L$2,NETWORKDAYS($I25,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I25,$J25,holiday!$C$3:$C$10)*$K25,0)))</f>
@@ -9888,18 +9888,18 @@
       </c>
     </row>
     <row r="26" spans="1:59" ht="16.8" outlineLevel="1">
-      <c r="A26" s="335">
+      <c r="A26" s="279">
         <v>1</v>
       </c>
-      <c r="B26" s="336">
+      <c r="B26" s="280">
         <v>2</v>
       </c>
-      <c r="C26" s="336">
+      <c r="C26" s="280">
         <v>4</v>
       </c>
-      <c r="D26" s="336"/>
-      <c r="E26" s="337"/>
-      <c r="F26" s="338" t="s">
+      <c r="D26" s="280"/>
+      <c r="E26" s="281"/>
+      <c r="F26" s="282" t="s">
         <v>258</v>
       </c>
       <c r="G26" s="233" t="s">
@@ -9917,11 +9917,11 @@
       <c r="K26" s="170">
         <v>0</v>
       </c>
-      <c r="L26" s="341"/>
-      <c r="M26" s="341"/>
-      <c r="N26" s="343"/>
-      <c r="O26" s="344"/>
-      <c r="P26" s="346"/>
+      <c r="L26" s="285"/>
+      <c r="M26" s="285"/>
+      <c r="N26" s="287"/>
+      <c r="O26" s="288"/>
+      <c r="P26" s="290"/>
       <c r="Q26" s="133"/>
       <c r="R26" s="134">
         <f>IF($J26="","",IF($J26&lt;=$L$2,$K26,IF($I26&lt;=$L$2,NETWORKDAYS($I26,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I26,$J26,holiday!$C$3:$C$10)*$K26,0)))</f>
@@ -10080,18 +10080,18 @@
       </c>
     </row>
     <row r="27" spans="1:59" ht="16.8" outlineLevel="1">
-      <c r="A27" s="335">
+      <c r="A27" s="279">
         <v>1</v>
       </c>
-      <c r="B27" s="336">
+      <c r="B27" s="280">
         <v>2</v>
       </c>
-      <c r="C27" s="336">
+      <c r="C27" s="280">
         <v>5</v>
       </c>
-      <c r="D27" s="336"/>
-      <c r="E27" s="337"/>
-      <c r="F27" s="338" t="s">
+      <c r="D27" s="280"/>
+      <c r="E27" s="281"/>
+      <c r="F27" s="282" t="s">
         <v>259</v>
       </c>
       <c r="G27" s="233" t="s">
@@ -10109,11 +10109,11 @@
       <c r="K27" s="170">
         <v>0</v>
       </c>
-      <c r="L27" s="341"/>
-      <c r="M27" s="341"/>
-      <c r="N27" s="343"/>
-      <c r="O27" s="344"/>
-      <c r="P27" s="346"/>
+      <c r="L27" s="285"/>
+      <c r="M27" s="285"/>
+      <c r="N27" s="287"/>
+      <c r="O27" s="288"/>
+      <c r="P27" s="290"/>
       <c r="Q27" s="133"/>
       <c r="R27" s="134">
         <f>IF($J27="","",IF($J27&lt;=$L$2,$K27,IF($I27&lt;=$L$2,NETWORKDAYS($I27,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I27,$J27,holiday!$C$3:$C$10)*$K27,0)))</f>
@@ -10272,18 +10272,18 @@
       </c>
     </row>
     <row r="28" spans="1:59" ht="16.8" outlineLevel="1">
-      <c r="A28" s="335">
+      <c r="A28" s="279">
         <v>1</v>
       </c>
-      <c r="B28" s="336">
+      <c r="B28" s="280">
         <v>2</v>
       </c>
-      <c r="C28" s="336">
+      <c r="C28" s="280">
         <v>6</v>
       </c>
-      <c r="D28" s="336"/>
-      <c r="E28" s="337"/>
-      <c r="F28" s="338" t="s">
+      <c r="D28" s="280"/>
+      <c r="E28" s="281"/>
+      <c r="F28" s="282" t="s">
         <v>260</v>
       </c>
       <c r="G28" s="233" t="s">
@@ -10301,11 +10301,11 @@
       <c r="K28" s="170">
         <v>0</v>
       </c>
-      <c r="L28" s="341"/>
-      <c r="M28" s="341"/>
-      <c r="N28" s="343"/>
-      <c r="O28" s="344"/>
-      <c r="P28" s="345"/>
+      <c r="L28" s="285"/>
+      <c r="M28" s="285"/>
+      <c r="N28" s="287"/>
+      <c r="O28" s="288"/>
+      <c r="P28" s="289"/>
       <c r="Q28" s="133"/>
       <c r="R28" s="134">
         <f>IF($J28="","",IF($J28&lt;=$L$2,$K28,IF($I28&lt;=$L$2,NETWORKDAYS($I28,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I28,$J28,holiday!$C$3:$C$10)*$K28,0)))</f>
@@ -10464,18 +10464,18 @@
       </c>
     </row>
     <row r="29" spans="1:59" ht="16.8" outlineLevel="1">
-      <c r="A29" s="335">
+      <c r="A29" s="279">
         <v>1</v>
       </c>
-      <c r="B29" s="336">
+      <c r="B29" s="280">
         <v>2</v>
       </c>
-      <c r="C29" s="336">
+      <c r="C29" s="280">
         <v>7</v>
       </c>
-      <c r="D29" s="336"/>
-      <c r="E29" s="337"/>
-      <c r="F29" s="338" t="s">
+      <c r="D29" s="280"/>
+      <c r="E29" s="281"/>
+      <c r="F29" s="282" t="s">
         <v>261</v>
       </c>
       <c r="G29" s="233" t="s">
@@ -10493,11 +10493,11 @@
       <c r="K29" s="170">
         <v>0</v>
       </c>
-      <c r="L29" s="341"/>
-      <c r="M29" s="341"/>
-      <c r="N29" s="343"/>
-      <c r="O29" s="344"/>
-      <c r="P29" s="346"/>
+      <c r="L29" s="285"/>
+      <c r="M29" s="285"/>
+      <c r="N29" s="287"/>
+      <c r="O29" s="288"/>
+      <c r="P29" s="290"/>
       <c r="Q29" s="133"/>
       <c r="R29" s="134">
         <f>IF($J29="","",IF($J29&lt;=$L$2,$K29,IF($I29&lt;=$L$2,NETWORKDAYS($I29,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I29,$J29,holiday!$C$3:$C$10)*$K29,0)))</f>
@@ -10656,18 +10656,18 @@
       </c>
     </row>
     <row r="30" spans="1:59" ht="16.8" outlineLevel="1">
-      <c r="A30" s="335">
+      <c r="A30" s="279">
         <v>1</v>
       </c>
-      <c r="B30" s="336">
+      <c r="B30" s="280">
         <v>2</v>
       </c>
-      <c r="C30" s="336">
+      <c r="C30" s="280">
         <v>8</v>
       </c>
-      <c r="D30" s="336"/>
-      <c r="E30" s="337"/>
-      <c r="F30" s="338" t="s">
+      <c r="D30" s="280"/>
+      <c r="E30" s="281"/>
+      <c r="F30" s="282" t="s">
         <v>262</v>
       </c>
       <c r="G30" s="233" t="s">
@@ -10685,11 +10685,11 @@
       <c r="K30" s="170">
         <v>0</v>
       </c>
-      <c r="L30" s="341"/>
-      <c r="M30" s="341"/>
-      <c r="N30" s="343"/>
-      <c r="O30" s="344"/>
-      <c r="P30" s="345"/>
+      <c r="L30" s="285"/>
+      <c r="M30" s="285"/>
+      <c r="N30" s="287"/>
+      <c r="O30" s="288"/>
+      <c r="P30" s="289"/>
       <c r="Q30" s="133"/>
       <c r="R30" s="134">
         <f>IF($J30="","",IF($J30&lt;=$L$2,$K30,IF($I30&lt;=$L$2,NETWORKDAYS($I30,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I30,$J30,holiday!$C$3:$C$10)*$K30,0)))</f>
@@ -10848,28 +10848,28 @@
       </c>
     </row>
     <row r="31" spans="1:59" ht="16.8" outlineLevel="1">
-      <c r="A31" s="335">
+      <c r="A31" s="279">
         <v>1</v>
       </c>
-      <c r="B31" s="336">
+      <c r="B31" s="280">
         <v>2</v>
       </c>
-      <c r="C31" s="336">
+      <c r="C31" s="280">
         <v>9</v>
       </c>
-      <c r="D31" s="336"/>
-      <c r="E31" s="337"/>
-      <c r="F31" s="348"/>
-      <c r="G31" s="347"/>
-      <c r="H31" s="340"/>
-      <c r="I31" s="341"/>
-      <c r="J31" s="341"/>
-      <c r="K31" s="342"/>
-      <c r="L31" s="341"/>
-      <c r="M31" s="341"/>
-      <c r="N31" s="343"/>
-      <c r="O31" s="344"/>
-      <c r="P31" s="345"/>
+      <c r="D31" s="280"/>
+      <c r="E31" s="281"/>
+      <c r="F31" s="292"/>
+      <c r="G31" s="291"/>
+      <c r="H31" s="284"/>
+      <c r="I31" s="285"/>
+      <c r="J31" s="285"/>
+      <c r="K31" s="286"/>
+      <c r="L31" s="285"/>
+      <c r="M31" s="285"/>
+      <c r="N31" s="287"/>
+      <c r="O31" s="288"/>
+      <c r="P31" s="289"/>
       <c r="Q31" s="133"/>
       <c r="R31" s="134" t="str">
         <f>IF($J31="","",IF($J31&lt;=$L$2,$K31,IF($I31&lt;=$L$2,NETWORKDAYS($I31,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I31,$J31,holiday!$C$3:$C$10)*$K31,0)))</f>
@@ -13386,18 +13386,18 @@
       </c>
     </row>
     <row r="46" spans="1:59" ht="16.8" outlineLevel="1">
-      <c r="A46" s="335">
+      <c r="A46" s="279">
         <v>2</v>
       </c>
-      <c r="B46" s="336">
+      <c r="B46" s="280">
         <v>2</v>
       </c>
-      <c r="C46" s="336">
+      <c r="C46" s="280">
         <v>1</v>
       </c>
-      <c r="D46" s="336"/>
-      <c r="E46" s="337"/>
-      <c r="F46" s="338" t="s">
+      <c r="D46" s="280"/>
+      <c r="E46" s="281"/>
+      <c r="F46" s="282" t="s">
         <v>267</v>
       </c>
       <c r="G46" s="233" t="s">
@@ -13415,11 +13415,11 @@
       <c r="K46" s="170">
         <v>0</v>
       </c>
-      <c r="L46" s="341"/>
-      <c r="M46" s="341"/>
-      <c r="N46" s="343"/>
-      <c r="O46" s="344"/>
-      <c r="P46" s="345"/>
+      <c r="L46" s="285"/>
+      <c r="M46" s="285"/>
+      <c r="N46" s="287"/>
+      <c r="O46" s="288"/>
+      <c r="P46" s="289"/>
       <c r="Q46" s="133"/>
       <c r="R46" s="134">
         <f>IF($J46="","",IF($J46&lt;=$L$2,$K46,IF($I46&lt;=$L$2,NETWORKDAYS($I46,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I46,$J46,holiday!$C$3:$C$10)*$K46,0)))</f>
@@ -13578,18 +13578,18 @@
       </c>
     </row>
     <row r="47" spans="1:59" ht="16.8" outlineLevel="1">
-      <c r="A47" s="335">
+      <c r="A47" s="279">
         <v>2</v>
       </c>
-      <c r="B47" s="336">
+      <c r="B47" s="280">
         <v>2</v>
       </c>
-      <c r="C47" s="336">
+      <c r="C47" s="280">
         <v>2</v>
       </c>
-      <c r="D47" s="336"/>
-      <c r="E47" s="337"/>
-      <c r="F47" s="338" t="s">
+      <c r="D47" s="280"/>
+      <c r="E47" s="281"/>
+      <c r="F47" s="282" t="s">
         <v>268</v>
       </c>
       <c r="G47" s="233" t="s">
@@ -13607,11 +13607,11 @@
       <c r="K47" s="170">
         <v>0</v>
       </c>
-      <c r="L47" s="341"/>
-      <c r="M47" s="341"/>
-      <c r="N47" s="343"/>
-      <c r="O47" s="344"/>
-      <c r="P47" s="345"/>
+      <c r="L47" s="285"/>
+      <c r="M47" s="285"/>
+      <c r="N47" s="287"/>
+      <c r="O47" s="288"/>
+      <c r="P47" s="289"/>
       <c r="Q47" s="133"/>
       <c r="R47" s="134">
         <f>IF($J47="","",IF($J47&lt;=$L$2,$K47,IF($I47&lt;=$L$2,NETWORKDAYS($I47,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I47,$J47,holiday!$C$3:$C$10)*$K47,0)))</f>
@@ -13770,18 +13770,18 @@
       </c>
     </row>
     <row r="48" spans="1:59" ht="16.8" outlineLevel="1">
-      <c r="A48" s="335">
+      <c r="A48" s="279">
         <v>2</v>
       </c>
-      <c r="B48" s="336">
+      <c r="B48" s="280">
         <v>2</v>
       </c>
-      <c r="C48" s="336">
+      <c r="C48" s="280">
         <v>3</v>
       </c>
-      <c r="D48" s="336"/>
-      <c r="E48" s="337"/>
-      <c r="F48" s="338" t="s">
+      <c r="D48" s="280"/>
+      <c r="E48" s="281"/>
+      <c r="F48" s="282" t="s">
         <v>269</v>
       </c>
       <c r="G48" s="233" t="s">
@@ -13799,11 +13799,11 @@
       <c r="K48" s="170">
         <v>0</v>
       </c>
-      <c r="L48" s="341"/>
-      <c r="M48" s="341"/>
-      <c r="N48" s="343"/>
-      <c r="O48" s="344"/>
-      <c r="P48" s="345"/>
+      <c r="L48" s="285"/>
+      <c r="M48" s="285"/>
+      <c r="N48" s="287"/>
+      <c r="O48" s="288"/>
+      <c r="P48" s="289"/>
       <c r="Q48" s="133"/>
       <c r="R48" s="134">
         <f>IF($J48="","",IF($J48&lt;=$L$2,$K48,IF($I48&lt;=$L$2,NETWORKDAYS($I48,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I48,$J48,holiday!$C$3:$C$10)*$K48,0)))</f>
@@ -13962,18 +13962,18 @@
       </c>
     </row>
     <row r="49" spans="1:59" ht="16.8" outlineLevel="1">
-      <c r="A49" s="335">
+      <c r="A49" s="279">
         <v>2</v>
       </c>
-      <c r="B49" s="336">
+      <c r="B49" s="280">
         <v>2</v>
       </c>
-      <c r="C49" s="336">
+      <c r="C49" s="280">
         <v>4</v>
       </c>
-      <c r="D49" s="336"/>
-      <c r="E49" s="337"/>
-      <c r="F49" s="348" t="s">
+      <c r="D49" s="280"/>
+      <c r="E49" s="281"/>
+      <c r="F49" s="292" t="s">
         <v>270</v>
       </c>
       <c r="G49" s="233"/>
@@ -13981,11 +13981,11 @@
       <c r="I49" s="169"/>
       <c r="J49" s="169"/>
       <c r="K49" s="170"/>
-      <c r="L49" s="341"/>
-      <c r="M49" s="341"/>
-      <c r="N49" s="343"/>
-      <c r="O49" s="344"/>
-      <c r="P49" s="345"/>
+      <c r="L49" s="285"/>
+      <c r="M49" s="285"/>
+      <c r="N49" s="287"/>
+      <c r="O49" s="288"/>
+      <c r="P49" s="289"/>
       <c r="Q49" s="133"/>
       <c r="R49" s="134" t="str">
         <f>IF($J49="","",IF($J49&lt;=$L$2,$K49,IF($I49&lt;=$L$2,NETWORKDAYS($I49,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I49,$J49,holiday!$C$3:$C$10)*$K49,0)))</f>
@@ -14144,28 +14144,28 @@
       </c>
     </row>
     <row r="50" spans="1:59" ht="16.8" outlineLevel="1">
-      <c r="A50" s="335">
+      <c r="A50" s="279">
         <v>2</v>
       </c>
-      <c r="B50" s="336">
+      <c r="B50" s="280">
         <v>2</v>
       </c>
-      <c r="C50" s="336">
+      <c r="C50" s="280">
         <v>5</v>
       </c>
-      <c r="D50" s="336"/>
-      <c r="E50" s="337"/>
-      <c r="F50" s="348"/>
-      <c r="G50" s="347"/>
-      <c r="H50" s="340"/>
-      <c r="I50" s="341"/>
-      <c r="J50" s="341"/>
-      <c r="K50" s="342"/>
-      <c r="L50" s="341"/>
-      <c r="M50" s="341"/>
-      <c r="N50" s="343"/>
-      <c r="O50" s="344"/>
-      <c r="P50" s="345"/>
+      <c r="D50" s="280"/>
+      <c r="E50" s="281"/>
+      <c r="F50" s="292"/>
+      <c r="G50" s="291"/>
+      <c r="H50" s="284"/>
+      <c r="I50" s="285"/>
+      <c r="J50" s="285"/>
+      <c r="K50" s="286"/>
+      <c r="L50" s="285"/>
+      <c r="M50" s="285"/>
+      <c r="N50" s="287"/>
+      <c r="O50" s="288"/>
+      <c r="P50" s="289"/>
       <c r="Q50" s="133"/>
       <c r="R50" s="134" t="str">
         <f>IF($J50="","",IF($J50&lt;=$L$2,$K50,IF($I50&lt;=$L$2,NETWORKDAYS($I50,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I50,$J50,holiday!$C$3:$C$10)*$K50,0)))</f>
@@ -15066,7 +15066,7 @@
         <v>43794</v>
       </c>
       <c r="J55" s="242">
-        <v>43798</v>
+        <v>43796</v>
       </c>
       <c r="K55" s="243"/>
       <c r="L55" s="244"/>
@@ -15250,7 +15250,7 @@
         <v>43794</v>
       </c>
       <c r="J56" s="253">
-        <v>43798</v>
+        <v>43796</v>
       </c>
       <c r="K56" s="254"/>
       <c r="L56" s="255"/>
@@ -15440,7 +15440,7 @@
         <v>43794</v>
       </c>
       <c r="J57" s="169">
-        <v>43798</v>
+        <v>43796</v>
       </c>
       <c r="K57" s="170">
         <v>0</v>
@@ -15632,7 +15632,7 @@
         <v>43794</v>
       </c>
       <c r="J58" s="169">
-        <v>43798</v>
+        <v>43796</v>
       </c>
       <c r="K58" s="170">
         <v>0</v>
@@ -15824,7 +15824,7 @@
         <v>43794</v>
       </c>
       <c r="J59" s="169">
-        <v>43798</v>
+        <v>43796</v>
       </c>
       <c r="K59" s="170">
         <v>0</v>
@@ -16198,7 +16198,7 @@
         <v>43794</v>
       </c>
       <c r="J61" s="169">
-        <v>43798</v>
+        <v>43796</v>
       </c>
       <c r="K61" s="170">
         <v>0</v>
@@ -16572,7 +16572,7 @@
         <v>43794</v>
       </c>
       <c r="J63" s="169">
-        <v>43798</v>
+        <v>43796</v>
       </c>
       <c r="K63" s="170">
         <v>0</v>
@@ -16764,7 +16764,7 @@
         <v>43794</v>
       </c>
       <c r="J64" s="169">
-        <v>43798</v>
+        <v>43796</v>
       </c>
       <c r="K64" s="170">
         <v>0</v>
@@ -17130,7 +17130,7 @@
         <v>43794</v>
       </c>
       <c r="J66" s="253">
-        <v>43798</v>
+        <v>43796</v>
       </c>
       <c r="K66" s="254"/>
       <c r="L66" s="255"/>
@@ -17296,18 +17296,18 @@
       </c>
     </row>
     <row r="67" spans="1:59" ht="16.8">
-      <c r="A67" s="335">
+      <c r="A67" s="279">
         <v>3</v>
       </c>
-      <c r="B67" s="336">
+      <c r="B67" s="280">
         <v>2</v>
       </c>
-      <c r="C67" s="336">
+      <c r="C67" s="280">
         <v>1</v>
       </c>
-      <c r="D67" s="336"/>
-      <c r="E67" s="337"/>
-      <c r="F67" s="348" t="s">
+      <c r="D67" s="280"/>
+      <c r="E67" s="281"/>
+      <c r="F67" s="292" t="s">
         <v>272</v>
       </c>
       <c r="G67" s="233" t="s">
@@ -17320,16 +17320,16 @@
         <v>43794</v>
       </c>
       <c r="J67" s="169">
-        <v>43798</v>
+        <v>43796</v>
       </c>
       <c r="K67" s="170">
         <v>0</v>
       </c>
-      <c r="L67" s="341"/>
-      <c r="M67" s="341"/>
-      <c r="N67" s="343"/>
-      <c r="O67" s="344"/>
-      <c r="P67" s="345"/>
+      <c r="L67" s="285"/>
+      <c r="M67" s="285"/>
+      <c r="N67" s="287"/>
+      <c r="O67" s="288"/>
+      <c r="P67" s="289"/>
       <c r="Q67" s="133"/>
       <c r="R67" s="134">
         <f>IF($J67="","",IF($J67&lt;=$L$2,$K67,IF($I67&lt;=$L$2,NETWORKDAYS($I67,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I67,$J67,holiday!$C$3:$C$10)*$K67,0)))</f>
@@ -17488,18 +17488,18 @@
       </c>
     </row>
     <row r="68" spans="1:59" ht="16.8">
-      <c r="A68" s="335">
+      <c r="A68" s="279">
         <v>3</v>
       </c>
-      <c r="B68" s="336">
+      <c r="B68" s="280">
         <v>2</v>
       </c>
-      <c r="C68" s="336">
+      <c r="C68" s="280">
         <v>2</v>
       </c>
-      <c r="D68" s="336"/>
-      <c r="E68" s="337"/>
-      <c r="F68" s="348" t="s">
+      <c r="D68" s="280"/>
+      <c r="E68" s="281"/>
+      <c r="F68" s="292" t="s">
         <v>273</v>
       </c>
       <c r="G68" s="233" t="s">
@@ -17512,16 +17512,16 @@
         <v>43794</v>
       </c>
       <c r="J68" s="169">
-        <v>43798</v>
+        <v>43796</v>
       </c>
       <c r="K68" s="170">
         <v>0</v>
       </c>
-      <c r="L68" s="341"/>
-      <c r="M68" s="341"/>
-      <c r="N68" s="343"/>
-      <c r="O68" s="344"/>
-      <c r="P68" s="345"/>
+      <c r="L68" s="285"/>
+      <c r="M68" s="285"/>
+      <c r="N68" s="287"/>
+      <c r="O68" s="288"/>
+      <c r="P68" s="289"/>
       <c r="Q68" s="133"/>
       <c r="R68" s="134">
         <f>IF($J68="","",IF($J68&lt;=$L$2,$K68,IF($I68&lt;=$L$2,NETWORKDAYS($I68,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I68,$J68,holiday!$C$3:$C$10)*$K68,0)))</f>
@@ -17680,18 +17680,18 @@
       </c>
     </row>
     <row r="69" spans="1:59" ht="16.8">
-      <c r="A69" s="335">
+      <c r="A69" s="279">
         <v>3</v>
       </c>
-      <c r="B69" s="336">
+      <c r="B69" s="280">
         <v>2</v>
       </c>
-      <c r="C69" s="336">
+      <c r="C69" s="280">
         <v>3</v>
       </c>
-      <c r="D69" s="336"/>
-      <c r="E69" s="337"/>
-      <c r="F69" s="348" t="s">
+      <c r="D69" s="280"/>
+      <c r="E69" s="281"/>
+      <c r="F69" s="292" t="s">
         <v>274</v>
       </c>
       <c r="G69" s="233" t="s">
@@ -17704,16 +17704,16 @@
         <v>43794</v>
       </c>
       <c r="J69" s="169">
-        <v>43798</v>
+        <v>43796</v>
       </c>
       <c r="K69" s="170">
         <v>0</v>
       </c>
-      <c r="L69" s="341"/>
-      <c r="M69" s="341"/>
-      <c r="N69" s="343"/>
-      <c r="O69" s="344"/>
-      <c r="P69" s="345"/>
+      <c r="L69" s="285"/>
+      <c r="M69" s="285"/>
+      <c r="N69" s="287"/>
+      <c r="O69" s="288"/>
+      <c r="P69" s="289"/>
       <c r="Q69" s="133"/>
       <c r="R69" s="134">
         <f>IF($J69="","",IF($J69&lt;=$L$2,$K69,IF($I69&lt;=$L$2,NETWORKDAYS($I69,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I69,$J69,holiday!$C$3:$C$10)*$K69,0)))</f>
@@ -17872,30 +17872,30 @@
       </c>
     </row>
     <row r="70" spans="1:59" ht="16.8">
-      <c r="A70" s="335">
+      <c r="A70" s="279">
         <v>3</v>
       </c>
-      <c r="B70" s="336">
+      <c r="B70" s="280">
         <v>2</v>
       </c>
-      <c r="C70" s="336">
+      <c r="C70" s="280">
         <v>4</v>
       </c>
-      <c r="D70" s="336"/>
-      <c r="E70" s="337"/>
-      <c r="F70" s="348" t="s">
+      <c r="D70" s="280"/>
+      <c r="E70" s="281"/>
+      <c r="F70" s="292" t="s">
         <v>275</v>
       </c>
-      <c r="G70" s="339"/>
-      <c r="H70" s="340"/>
-      <c r="I70" s="341"/>
-      <c r="J70" s="341"/>
-      <c r="K70" s="342"/>
-      <c r="L70" s="341"/>
-      <c r="M70" s="341"/>
-      <c r="N70" s="343"/>
-      <c r="O70" s="344"/>
-      <c r="P70" s="345"/>
+      <c r="G70" s="283"/>
+      <c r="H70" s="284"/>
+      <c r="I70" s="285"/>
+      <c r="J70" s="285"/>
+      <c r="K70" s="286"/>
+      <c r="L70" s="285"/>
+      <c r="M70" s="285"/>
+      <c r="N70" s="287"/>
+      <c r="O70" s="288"/>
+      <c r="P70" s="289"/>
       <c r="Q70" s="133"/>
       <c r="R70" s="134" t="str">
         <f>IF($J70="","",IF($J70&lt;=$L$2,$K70,IF($I70&lt;=$L$2,NETWORKDAYS($I70,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I70,$J70,holiday!$C$3:$C$10)*$K70,0)))</f>
@@ -18054,18 +18054,18 @@
       </c>
     </row>
     <row r="71" spans="1:59" ht="16.8">
-      <c r="A71" s="335">
+      <c r="A71" s="279">
         <v>3</v>
       </c>
-      <c r="B71" s="336">
+      <c r="B71" s="280">
         <v>2</v>
       </c>
-      <c r="C71" s="336">
+      <c r="C71" s="280">
         <v>5</v>
       </c>
-      <c r="D71" s="336"/>
-      <c r="E71" s="337"/>
-      <c r="F71" s="348" t="s">
+      <c r="D71" s="280"/>
+      <c r="E71" s="281"/>
+      <c r="F71" s="292" t="s">
         <v>276</v>
       </c>
       <c r="G71" s="233" t="s">
@@ -18078,16 +18078,16 @@
         <v>43794</v>
       </c>
       <c r="J71" s="169">
-        <v>43798</v>
+        <v>43796</v>
       </c>
       <c r="K71" s="170">
         <v>0</v>
       </c>
-      <c r="L71" s="341"/>
-      <c r="M71" s="341"/>
-      <c r="N71" s="343"/>
-      <c r="O71" s="344"/>
-      <c r="P71" s="345"/>
+      <c r="L71" s="285"/>
+      <c r="M71" s="285"/>
+      <c r="N71" s="287"/>
+      <c r="O71" s="288"/>
+      <c r="P71" s="289"/>
       <c r="Q71" s="133"/>
       <c r="R71" s="134">
         <f>IF($J71="","",IF($J71&lt;=$L$2,$K71,IF($I71&lt;=$L$2,NETWORKDAYS($I71,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I71,$J71,holiday!$C$3:$C$10)*$K71,0)))</f>
@@ -18246,30 +18246,30 @@
       </c>
     </row>
     <row r="72" spans="1:59" ht="16.8">
-      <c r="A72" s="335">
+      <c r="A72" s="279">
         <v>3</v>
       </c>
-      <c r="B72" s="336">
+      <c r="B72" s="280">
         <v>2</v>
       </c>
-      <c r="C72" s="336">
+      <c r="C72" s="280">
         <v>6</v>
       </c>
-      <c r="D72" s="336"/>
-      <c r="E72" s="337"/>
-      <c r="F72" s="348" t="s">
+      <c r="D72" s="280"/>
+      <c r="E72" s="281"/>
+      <c r="F72" s="292" t="s">
         <v>277</v>
       </c>
-      <c r="G72" s="339"/>
-      <c r="H72" s="340"/>
-      <c r="I72" s="341"/>
-      <c r="J72" s="341"/>
-      <c r="K72" s="342"/>
-      <c r="L72" s="341"/>
-      <c r="M72" s="341"/>
-      <c r="N72" s="343"/>
-      <c r="O72" s="344"/>
-      <c r="P72" s="345"/>
+      <c r="G72" s="283"/>
+      <c r="H72" s="284"/>
+      <c r="I72" s="285"/>
+      <c r="J72" s="285"/>
+      <c r="K72" s="286"/>
+      <c r="L72" s="285"/>
+      <c r="M72" s="285"/>
+      <c r="N72" s="287"/>
+      <c r="O72" s="288"/>
+      <c r="P72" s="289"/>
       <c r="Q72" s="133"/>
       <c r="R72" s="134" t="str">
         <f>IF($J72="","",IF($J72&lt;=$L$2,$K72,IF($I72&lt;=$L$2,NETWORKDAYS($I72,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I72,$J72,holiday!$C$3:$C$10)*$K72,0)))</f>
@@ -18428,18 +18428,18 @@
       </c>
     </row>
     <row r="73" spans="1:59" ht="16.8">
-      <c r="A73" s="335">
+      <c r="A73" s="279">
         <v>3</v>
       </c>
-      <c r="B73" s="336">
+      <c r="B73" s="280">
         <v>2</v>
       </c>
-      <c r="C73" s="336">
+      <c r="C73" s="280">
         <v>7</v>
       </c>
-      <c r="D73" s="336"/>
-      <c r="E73" s="337"/>
-      <c r="F73" s="348" t="s">
+      <c r="D73" s="280"/>
+      <c r="E73" s="281"/>
+      <c r="F73" s="292" t="s">
         <v>278</v>
       </c>
       <c r="G73" s="233" t="s">
@@ -18452,16 +18452,16 @@
         <v>43794</v>
       </c>
       <c r="J73" s="169">
-        <v>43798</v>
+        <v>43796</v>
       </c>
       <c r="K73" s="170">
         <v>0</v>
       </c>
-      <c r="L73" s="341"/>
-      <c r="M73" s="341"/>
-      <c r="N73" s="343"/>
-      <c r="O73" s="344"/>
-      <c r="P73" s="345"/>
+      <c r="L73" s="285"/>
+      <c r="M73" s="285"/>
+      <c r="N73" s="287"/>
+      <c r="O73" s="288"/>
+      <c r="P73" s="289"/>
       <c r="Q73" s="133"/>
       <c r="R73" s="134">
         <f>IF($J73="","",IF($J73&lt;=$L$2,$K73,IF($I73&lt;=$L$2,NETWORKDAYS($I73,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I73,$J73,holiday!$C$3:$C$10)*$K73,0)))</f>
@@ -18620,18 +18620,18 @@
       </c>
     </row>
     <row r="74" spans="1:59" ht="16.8">
-      <c r="A74" s="335">
+      <c r="A74" s="279">
         <v>3</v>
       </c>
-      <c r="B74" s="336">
+      <c r="B74" s="280">
         <v>2</v>
       </c>
-      <c r="C74" s="336">
+      <c r="C74" s="280">
         <v>8</v>
       </c>
-      <c r="D74" s="336"/>
-      <c r="E74" s="337"/>
-      <c r="F74" s="348" t="s">
+      <c r="D74" s="280"/>
+      <c r="E74" s="281"/>
+      <c r="F74" s="292" t="s">
         <v>279</v>
       </c>
       <c r="G74" s="233" t="s">
@@ -18644,16 +18644,16 @@
         <v>43794</v>
       </c>
       <c r="J74" s="169">
-        <v>43798</v>
+        <v>43796</v>
       </c>
       <c r="K74" s="170">
         <v>0</v>
       </c>
-      <c r="L74" s="341"/>
-      <c r="M74" s="341"/>
-      <c r="N74" s="343"/>
-      <c r="O74" s="344"/>
-      <c r="P74" s="345"/>
+      <c r="L74" s="285"/>
+      <c r="M74" s="285"/>
+      <c r="N74" s="287"/>
+      <c r="O74" s="288"/>
+      <c r="P74" s="289"/>
       <c r="Q74" s="133"/>
       <c r="R74" s="134">
         <f>IF($J74="","",IF($J74&lt;=$L$2,$K74,IF($I74&lt;=$L$2,NETWORKDAYS($I74,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I74,$J74,holiday!$C$3:$C$10)*$K74,0)))</f>
@@ -18812,28 +18812,28 @@
       </c>
     </row>
     <row r="75" spans="1:59" ht="16.8">
-      <c r="A75" s="335">
+      <c r="A75" s="279">
         <v>3</v>
       </c>
-      <c r="B75" s="336">
+      <c r="B75" s="280">
         <v>2</v>
       </c>
-      <c r="C75" s="336">
+      <c r="C75" s="280">
         <v>9</v>
       </c>
-      <c r="D75" s="336"/>
-      <c r="E75" s="337"/>
-      <c r="F75" s="348"/>
-      <c r="G75" s="339"/>
-      <c r="H75" s="340"/>
-      <c r="I75" s="341"/>
-      <c r="J75" s="341"/>
-      <c r="K75" s="342"/>
-      <c r="L75" s="341"/>
-      <c r="M75" s="341"/>
-      <c r="N75" s="343"/>
-      <c r="O75" s="344"/>
-      <c r="P75" s="345"/>
+      <c r="D75" s="280"/>
+      <c r="E75" s="281"/>
+      <c r="F75" s="292"/>
+      <c r="G75" s="283"/>
+      <c r="H75" s="284"/>
+      <c r="I75" s="285"/>
+      <c r="J75" s="285"/>
+      <c r="K75" s="286"/>
+      <c r="L75" s="285"/>
+      <c r="M75" s="285"/>
+      <c r="N75" s="287"/>
+      <c r="O75" s="288"/>
+      <c r="P75" s="289"/>
       <c r="Q75" s="133"/>
       <c r="R75" s="134" t="str">
         <f>IF($J75="","",IF($J75&lt;=$L$2,$K75,IF($I75&lt;=$L$2,NETWORKDAYS($I75,$L$2,holiday!$C$3:$C$10)/NETWORKDAYS($I75,$J75,holiday!$C$3:$C$10)*$K75,0)))</f>
@@ -20818,7 +20818,7 @@
         <v>43794</v>
       </c>
       <c r="J86" s="242">
-        <v>43807</v>
+        <v>43802</v>
       </c>
       <c r="K86" s="243"/>
       <c r="L86" s="244"/>
@@ -21002,7 +21002,7 @@
         <v>43794</v>
       </c>
       <c r="J87" s="253">
-        <v>43805</v>
+        <v>43802</v>
       </c>
       <c r="K87" s="254"/>
       <c r="L87" s="255"/>
@@ -22344,7 +22344,7 @@
         <v>43794</v>
       </c>
       <c r="J94" s="169">
-        <v>43805</v>
+        <v>43802</v>
       </c>
       <c r="K94" s="170">
         <v>0</v>
@@ -22536,7 +22536,7 @@
         <v>43794</v>
       </c>
       <c r="J95" s="169">
-        <v>43805</v>
+        <v>43802</v>
       </c>
       <c r="K95" s="170">
         <v>0</v>
@@ -22728,7 +22728,7 @@
         <v>43794</v>
       </c>
       <c r="J96" s="169">
-        <v>43805</v>
+        <v>43802</v>
       </c>
       <c r="K96" s="170">
         <v>0</v>
@@ -22920,7 +22920,7 @@
         <v>43794</v>
       </c>
       <c r="J97" s="169">
-        <v>43805</v>
+        <v>43802</v>
       </c>
       <c r="K97" s="170">
         <v>0</v>
@@ -23283,10 +23283,10 @@
       <c r="G99" s="251"/>
       <c r="H99" s="252"/>
       <c r="I99" s="253">
-        <v>43805</v>
+        <v>43796</v>
       </c>
       <c r="J99" s="253">
-        <v>43807</v>
+        <v>43798</v>
       </c>
       <c r="K99" s="254"/>
       <c r="L99" s="255"/>
@@ -23473,10 +23473,10 @@
         <v>213</v>
       </c>
       <c r="I100" s="169">
-        <v>43805</v>
+        <v>43796</v>
       </c>
       <c r="J100" s="169">
-        <v>43807</v>
+        <v>43798</v>
       </c>
       <c r="K100" s="170">
         <v>4</v>
@@ -23665,10 +23665,10 @@
         <v>213</v>
       </c>
       <c r="I101" s="169">
-        <v>43805</v>
+        <v>43796</v>
       </c>
       <c r="J101" s="169">
-        <v>43807</v>
+        <v>43798</v>
       </c>
       <c r="K101" s="170">
         <v>0</v>
@@ -23857,10 +23857,10 @@
         <v>213</v>
       </c>
       <c r="I102" s="169">
-        <v>43805</v>
+        <v>43796</v>
       </c>
       <c r="J102" s="169">
-        <v>43807</v>
+        <v>43798</v>
       </c>
       <c r="K102" s="170">
         <v>4</v>
@@ -24233,10 +24233,10 @@
         <v>213</v>
       </c>
       <c r="I104" s="169">
-        <v>43805</v>
+        <v>43796</v>
       </c>
       <c r="J104" s="169">
-        <v>43807</v>
+        <v>43798</v>
       </c>
       <c r="K104" s="170">
         <v>4</v>
@@ -24320,10 +24320,10 @@
         <v>213</v>
       </c>
       <c r="I105" s="169">
-        <v>43805</v>
+        <v>43796</v>
       </c>
       <c r="J105" s="169">
-        <v>43807</v>
+        <v>43798</v>
       </c>
       <c r="K105" s="170">
         <v>2</v>
@@ -24512,10 +24512,10 @@
         <v>213</v>
       </c>
       <c r="I106" s="169">
-        <v>43805</v>
+        <v>43796</v>
       </c>
       <c r="J106" s="169">
-        <v>43807</v>
+        <v>43798</v>
       </c>
       <c r="K106" s="170">
         <v>2</v>
@@ -25244,10 +25244,10 @@
       <c r="G110" s="240"/>
       <c r="H110" s="241"/>
       <c r="I110" s="242">
-        <v>43805</v>
+        <v>43800</v>
       </c>
       <c r="J110" s="242">
-        <v>43807</v>
+        <v>43802</v>
       </c>
       <c r="K110" s="243"/>
       <c r="L110" s="244"/>
@@ -25432,10 +25432,10 @@
         <v>218</v>
       </c>
       <c r="I111" s="169">
-        <v>43805</v>
+        <v>43800</v>
       </c>
       <c r="J111" s="169">
-        <v>43807</v>
+        <v>43802</v>
       </c>
       <c r="K111" s="170">
         <v>0</v>
@@ -25622,10 +25622,10 @@
         <v>218</v>
       </c>
       <c r="I112" s="169">
-        <v>43805</v>
+        <v>43800</v>
       </c>
       <c r="J112" s="169">
-        <v>43807</v>
+        <v>43802</v>
       </c>
       <c r="K112" s="170">
         <v>0</v>
@@ -25984,10 +25984,10 @@
       <c r="G114" s="240"/>
       <c r="H114" s="241"/>
       <c r="I114" s="242">
-        <v>43805</v>
+        <v>43800</v>
       </c>
       <c r="J114" s="242">
-        <v>43807</v>
+        <v>43802</v>
       </c>
       <c r="K114" s="243"/>
       <c r="L114" s="244"/>
@@ -26172,10 +26172,10 @@
         <v>213</v>
       </c>
       <c r="I115" s="169">
-        <v>43805</v>
+        <v>43800</v>
       </c>
       <c r="J115" s="169">
-        <v>43807</v>
+        <v>43802</v>
       </c>
       <c r="K115" s="170">
         <v>0</v>
@@ -26362,10 +26362,10 @@
         <v>213</v>
       </c>
       <c r="I116" s="169">
-        <v>43805</v>
+        <v>43800</v>
       </c>
       <c r="J116" s="169">
-        <v>43807</v>
+        <v>43802</v>
       </c>
       <c r="K116" s="170">
         <v>2</v>
@@ -27069,7 +27069,7 @@
       <c r="I120" s="188"/>
       <c r="J120" s="188">
         <f>MAX(J6:J118)</f>
-        <v>43807</v>
+        <v>43802</v>
       </c>
       <c r="K120" s="189">
         <f>SUM(K6:K118)</f>
@@ -27839,21 +27839,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="31" customFormat="1" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A1" s="324" t="s">
+      <c r="A1" s="338" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="325"/>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="325"/>
-      <c r="L1" s="325"/>
-      <c r="M1" s="325"/>
+      <c r="B1" s="339"/>
+      <c r="C1" s="339"/>
+      <c r="D1" s="339"/>
+      <c r="E1" s="339"/>
+      <c r="F1" s="339"/>
+      <c r="G1" s="339"/>
+      <c r="H1" s="339"/>
+      <c r="I1" s="339"/>
+      <c r="J1" s="339"/>
+      <c r="K1" s="339"/>
+      <c r="L1" s="339"/>
+      <c r="M1" s="339"/>
       <c r="N1" s="12" t="s">
         <v>61</v>
       </c>
@@ -27869,22 +27869,22 @@
       <c r="R1" s="13"/>
       <c r="S1" s="14"/>
       <c r="T1" s="15"/>
-      <c r="U1" s="313"/>
+      <c r="U1" s="327"/>
     </row>
     <row r="2" spans="1:25" s="31" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A2" s="326"/>
-      <c r="B2" s="327"/>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="327"/>
-      <c r="I2" s="327"/>
-      <c r="J2" s="327"/>
-      <c r="K2" s="327"/>
-      <c r="L2" s="327"/>
-      <c r="M2" s="327"/>
+      <c r="A2" s="340"/>
+      <c r="B2" s="341"/>
+      <c r="C2" s="341"/>
+      <c r="D2" s="341"/>
+      <c r="E2" s="341"/>
+      <c r="F2" s="341"/>
+      <c r="G2" s="341"/>
+      <c r="H2" s="341"/>
+      <c r="I2" s="341"/>
+      <c r="J2" s="341"/>
+      <c r="K2" s="341"/>
+      <c r="L2" s="341"/>
+      <c r="M2" s="341"/>
       <c r="N2" s="16" t="s">
         <v>18</v>
       </c>
@@ -27896,18 +27896,18 @@
       <c r="R2" s="19"/>
       <c r="S2" s="20"/>
       <c r="T2" s="21"/>
-      <c r="U2" s="314"/>
+      <c r="U2" s="328"/>
     </row>
     <row r="3" spans="1:25" ht="9.75" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="4" spans="1:25" ht="12.6" customHeight="1">
-      <c r="A4" s="328" t="s">
+      <c r="A4" s="342" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="329"/>
-      <c r="C4" s="329"/>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="333" t="s">
+      <c r="B4" s="343"/>
+      <c r="C4" s="343"/>
+      <c r="D4" s="344"/>
+      <c r="E4" s="344"/>
+      <c r="F4" s="347" t="s">
         <v>57</v>
       </c>
       <c r="G4" s="36" t="s">
@@ -27922,39 +27922,39 @@
       <c r="J4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="312" t="s">
+      <c r="K4" s="326" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="310" t="s">
+      <c r="L4" s="324" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="320" t="s">
+      <c r="M4" s="334" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="317" t="s">
+      <c r="N4" s="331" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="318"/>
-      <c r="P4" s="319"/>
-      <c r="Q4" s="317" t="s">
+      <c r="O4" s="332"/>
+      <c r="P4" s="333"/>
+      <c r="Q4" s="331" t="s">
         <v>66</v>
       </c>
-      <c r="R4" s="318"/>
-      <c r="S4" s="319"/>
-      <c r="T4" s="322" t="s">
+      <c r="R4" s="332"/>
+      <c r="S4" s="333"/>
+      <c r="T4" s="336" t="s">
         <v>70</v>
       </c>
-      <c r="U4" s="315" t="s">
+      <c r="U4" s="329" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="24.9" customHeight="1" thickBot="1">
-      <c r="A5" s="331"/>
-      <c r="B5" s="332"/>
-      <c r="C5" s="332"/>
-      <c r="D5" s="332"/>
-      <c r="E5" s="332"/>
-      <c r="F5" s="334"/>
+      <c r="A5" s="345"/>
+      <c r="B5" s="346"/>
+      <c r="C5" s="346"/>
+      <c r="D5" s="346"/>
+      <c r="E5" s="346"/>
+      <c r="F5" s="348"/>
       <c r="G5" s="35"/>
       <c r="H5" s="37" t="s">
         <v>26</v>
@@ -27965,9 +27965,9 @@
       <c r="J5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="311"/>
-      <c r="L5" s="311"/>
-      <c r="M5" s="321"/>
+      <c r="K5" s="325"/>
+      <c r="L5" s="325"/>
+      <c r="M5" s="335"/>
       <c r="N5" s="22" t="s">
         <v>55</v>
       </c>
@@ -27986,8 +27986,8 @@
       <c r="S5" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="T5" s="323"/>
-      <c r="U5" s="316"/>
+      <c r="T5" s="337"/>
+      <c r="U5" s="330"/>
       <c r="W5" s="32" t="s">
         <v>30</v>
       </c>
